--- a/Calcolo Potenze Progetto.xlsx
+++ b/Calcolo Potenze Progetto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\Tutte le cartelle\PROGETTO ESP\CENTRALINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FAD613A-8595-4E63-9247-B17F775A805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E9B47-2E9B-4BA4-AE9E-B30133F9E31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C2CEFBA-7594-4654-A74D-E4177446ACA8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Consumo Scheda</t>
   </si>
@@ -96,16 +96,13 @@
     <t xml:space="preserve">Energia Necessaria(Wh): </t>
   </si>
   <si>
+    <t>CALCOLO CONSUMO ENERGETICO STAZIONE TX: SO TUFF</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Pannello solare consigliato: 18V (nominale), almeno 10W
- Regolatore di carica: PWM o MPPT da 12V
+ Regolatore di carica: Tipo PWM o MPPT da 12V
  Batteria: 12V 4Ah (48Wh)
  Convertitore step-down 12V → 5V e 3.3V per alimentare i componenti</t>
-  </si>
-  <si>
-    <t>CALCOLO CONSUMO ENERGETICO STAZIONE TX: SO TUFF</t>
-  </si>
-  <si>
-    <t>Michela &lt;3</t>
   </si>
 </sst>
 </file>
@@ -463,48 +460,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,12 +474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -547,6 +503,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,7 +563,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -882,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1F137D-119C-46C3-831B-F92092D11DAB}">
   <dimension ref="C1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,405 +892,419 @@
   <sheetData>
     <row r="1" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="32"/>
+      <c r="C2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
     </row>
     <row r="3" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="35"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="3:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="3:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="10"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18">
         <v>3.3</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="23">
         <v>180</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4">
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="18">
         <v>0.6</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="12"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21">
         <v>3.3</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21">
         <v>20</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="3:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2">
         <f>L7+L8</f>
         <v>0.66599999999999993</v>
       </c>
     </row>
     <row r="13" spans="3:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="3:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="3:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="10"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="23">
         <v>3.7</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="4">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="18">
         <v>1.2E-2</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="12"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
         <v>3</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18">
         <v>0.01</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="12"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18">
         <v>1.5</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="12"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18">
         <v>20</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18">
         <v>0.1</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="12"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18">
         <v>30</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18">
         <v>0.15</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="12"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21">
         <v>8</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="3:14" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2">
         <f>L16+L17+L18+L19+L20+L21</f>
         <v>0.30300000000000005</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2">
         <f>F10+F23</f>
         <v>0.96899999999999997</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="20">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="3">
         <f>F25*24</f>
         <v>23.256</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="N25" s="1"/>
     </row>
     <row r="28" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="36"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="3:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C29:I32"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C2:T3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:H18"/>
@@ -1302,34 +1313,18 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="L19:N19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="C2:T3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C29:I32"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calcolo Potenze Progetto.xlsx
+++ b/Calcolo Potenze Progetto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\Tutte le cartelle\PROGETTO ESP\CENTRALINA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E9B47-2E9B-4BA4-AE9E-B30133F9E31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5435450-F1EE-4DBA-B284-99C72EB210B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C2CEFBA-7594-4654-A74D-E4177446ACA8}"/>
   </bookViews>
@@ -467,6 +467,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,66 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1F137D-119C-46C3-831B-F92092D11DAB}">
   <dimension ref="C1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:I32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,107 +892,107 @@
   <sheetData>
     <row r="1" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="33"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
     </row>
     <row r="3" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="36"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="3:20" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="3:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="28" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="30"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
         <v>3.3</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="23">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19">
         <v>180</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="18">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="17">
         <v>0.6</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="20" t="s">
@@ -1014,15 +1014,15 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="3:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="2">
         <f>L7+L8</f>
         <v>0.66599999999999993</v>
@@ -1030,152 +1030,152 @@
     </row>
     <row r="13" spans="3:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="3:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="3:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="28" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="23">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="19">
         <v>3.7</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="18">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17">
         <v>3</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18">
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17">
         <v>0.01</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
         <v>1.5</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
         <v>20</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18">
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17">
         <v>0.1</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18">
-        <v>30</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
+        <v>8</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="20" t="s">
@@ -1197,40 +1197,40 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="3:14" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="2">
         <f>L16+L17+L18+L19+L20+L21</f>
-        <v>0.30300000000000005</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="3:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="2">
         <f>F10+F23</f>
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="H25" s="5" t="s">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
       <c r="L25" s="3">
         <f>F25*24</f>
-        <v>23.256</v>
+        <v>20.28</v>
       </c>
       <c r="N25" s="1"/>
     </row>
@@ -1238,45 +1238,85 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="3:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C29:I32"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="C2:T3"/>
     <mergeCell ref="C6:E6"/>
@@ -1285,46 +1325,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C29:I32"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
